--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="174">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -352,15 +352,6 @@
   </si>
   <si>
     <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_screening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Please submit monthly screening form for ${display_name} after submitting this person registration.**_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya uchunguzi wa kila mwezi kwa ${display_name} baada ya kuwasilisha usajili wa mtu huyu.**_</t>
   </si>
   <si>
     <t xml:space="preserve">meta</t>
@@ -964,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2036,36 +2027,52 @@
       <c r="M34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>87</v>
+      <c r="A35" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2073,9 +2080,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2083,7 +2088,9 @@
       <c r="L36" s="4"/>
       <c r="M36" s="5"/>
       <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="O36" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2102,7 +2109,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>17</v>
@@ -2120,9 +2127,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2141,7 +2146,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>17</v>
@@ -2175,28 +2180,28 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2231,9 +2236,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -2252,7 +2255,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -2262,7 +2265,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -2283,12 +2286,10 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>37</v>
+      <c r="A42" s="4" t="s">
+        <v>25</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -2296,9 +2297,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
@@ -2318,42 +2317,40 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2380,7 +2377,7 @@
       <c r="AA44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="18"/>
       <c r="D45" s="5"/>
@@ -2438,18 +2435,18 @@
       <c r="AA46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="18"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="5"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -2467,9 +2464,9 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="18"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
       <c r="F48" s="18"/>
@@ -2500,12 +2497,12 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
       <c r="M49" s="5"/>
@@ -2525,9 +2522,9 @@
       <c r="AA49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="5"/>
       <c r="E50" s="18"/>
       <c r="F50" s="3"/>
@@ -2553,19 +2550,19 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
       <c r="M51" s="5"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -2640,19 +2637,19 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="5"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -2701,16 +2698,16 @@
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="18"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
       <c r="M56" s="5"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -2727,7 +2724,7 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -30045,35 +30042,7 @@
       <c r="Z998" s="3"/>
       <c r="AA998" s="3"/>
     </row>
-    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-      <c r="AA999" s="3"/>
-    </row>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -30137,12 +30106,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:A8 A36:A999">
+  <conditionalFormatting sqref="A1:A8 A35:A998">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A8 A36:A999">
+  <conditionalFormatting sqref="A1:A8 A35:A998">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"end group"</formula>
     </cfRule>
@@ -30169,11 +30138,11 @@
   </sheetPr>
   <dimension ref="A1:W993"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -30186,7 +30155,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -30219,16 +30188,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -30252,16 +30221,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -30285,16 +30254,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -30318,16 +30287,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -30351,16 +30320,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -30384,16 +30353,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -30417,16 +30386,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -30450,16 +30419,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -30483,16 +30452,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -30516,16 +30485,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -30549,16 +30518,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -30582,16 +30551,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -30618,13 +30587,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30632,13 +30601,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31655,19 +31624,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="3"/>
@@ -31693,20 +31662,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" s="25" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-06-02  12-19</v>
+        <v>2023-07-31  14-43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>

--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-create.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/contact/household_member-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -216,7 +216,22 @@
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today())) and floor( difference-in-months( . , today() ) div 12 ) &lt;= 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Age must be between 0 and 100</t>
+    <t xml:space="preserve">You've chosen a future date.  Future date is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dob_known = 'no'</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -225,10 +240,7 @@
     <t xml:space="preserve">age_years</t>
   </si>
   <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umri</t>
+    <t xml:space="preserve">Years</t>
   </si>
   <si>
     <t xml:space="preserve">../age_set = 'over5' and ../dob_known = 'no'</t>
@@ -237,7 +249,25 @@
     <t xml:space="preserve">. &gt;= 0 and . &lt;=100</t>
   </si>
   <si>
+    <t xml:space="preserve">Please enter a valid age.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age in years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt;= 1 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must be between 1 and 11</t>
   </si>
   <si>
     <t xml:space="preserve">age_months</t>
@@ -285,9 +315,6 @@
     <t xml:space="preserve">floor(difference-in-months( ../dob_iso, today() ))</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
     <t xml:space="preserve">n_age</t>
   </si>
   <si>
@@ -312,7 +339,7 @@
     <t xml:space="preserve">${person_age_years} &gt;=10</t>
   </si>
   <si>
-    <t xml:space="preserve">Please make sure the number is not already in use by another person and is in the format 07XX XXX XXX</t>
+    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
     <t xml:space="preserve">Use the following format: +254712345678</t>
@@ -352,6 +379,15 @@
   </si>
   <si>
     <t xml:space="preserve">../relationship_to_primary_caregiver = 'other'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_member_assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Please submit household member assessment  form for ${display_name} after submitting this person registration.**_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_**Tafadhali wasilisha fomu ya tathmini ya mwanafamilia kwa ${display_name} baada ya kuwasilisha usajili wa mtu huyu.**_</t>
   </si>
   <si>
     <t xml:space="preserve">meta</t>
@@ -953,10 +989,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -968,7 +1004,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="68.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33.43"/>
@@ -1665,7 +1702,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -1678,80 +1715,115 @@
       <c r="D21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>17</v>
+      <c r="D22" s="9" t="s">
+        <v>68</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="n">
-        <v>0</v>
+      <c r="H22" s="9" t="s">
+        <v>74</v>
       </c>
+      <c r="I22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9" t="n">
-        <v>0</v>
+      <c r="L22" s="9" t="s">
+        <v>76</v>
       </c>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>74</v>
+      <c r="H23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>17</v>
@@ -1762,19 +1834,21 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9" t="s">
-        <v>76</v>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>17</v>
@@ -1786,7 +1860,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1797,7 +1871,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>17</v>
@@ -1809,7 +1883,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1820,7 +1894,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>17</v>
@@ -1832,7 +1906,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1843,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>17</v>
@@ -1855,7 +1929,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -1866,7 +1940,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>17</v>
@@ -1878,7 +1952,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -1886,269 +1960,227 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>90</v>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>94</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11" t="b">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>91</v>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>92</v>
+      <c r="B33" s="9" t="s">
+        <v>101</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>93</v>
+      <c r="C33" s="9" t="s">
+        <v>102</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
+      <c r="D33" s="9" t="s">
+        <v>103</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>95</v>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>104</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="12" t="n">
+      <c r="G33" s="9"/>
+      <c r="H33" s="12" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>96</v>
+      <c r="I33" s="9" t="s">
+        <v>105</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>97</v>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>91</v>
+      <c r="M33" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="9" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
-        <v>95</v>
+      <c r="B34" s="9" t="s">
+        <v>107</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="12" t="n">
+      <c r="C34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="12" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>96</v>
+      <c r="I34" s="9" t="s">
+        <v>105</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
-        <v>97</v>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>101</v>
+      <c r="M34" s="9" t="s">
+        <v>106</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>102</v>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>110</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>103</v>
+      <c r="B35" s="9" t="s">
+        <v>111</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>104</v>
+      <c r="C35" s="9" t="s">
+        <v>112</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="D35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>105</v>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>114</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>106</v>
+      <c r="B36" s="9" t="s">
+        <v>115</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>107</v>
+      <c r="C36" s="9" t="s">
+        <v>116</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>108</v>
+      <c r="D36" s="9" t="s">
+        <v>117</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>109</v>
+      <c r="F36" s="9" t="s">
+        <v>118</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>110</v>
+      <c r="B38" s="14" t="s">
+        <v>122</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2156,7 +2188,9 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2180,27 +2214,29 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
       <c r="N39" s="4"/>
       <c r="O39" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -2217,21 +2253,23 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
@@ -2252,21 +2290,23 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
@@ -2286,10 +2326,12 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>25</v>
+      <c r="A42" s="15" t="s">
+        <v>37</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
@@ -2297,12 +2339,16 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="O42" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -2317,98 +2363,112 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="18"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2440,13 +2500,13 @@
       <c r="C47" s="18"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
       <c r="M47" s="5"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -2464,18 +2524,18 @@
       <c r="AA47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
       <c r="M48" s="5"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -2493,18 +2553,18 @@
       <c r="AA48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
       <c r="M49" s="5"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -2526,12 +2586,12 @@
       <c r="B50" s="3"/>
       <c r="C50" s="18"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
       <c r="M50" s="5"/>
@@ -2550,19 +2610,19 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="5"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -2579,19 +2639,19 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="5"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -2608,19 +2668,19 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="5"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -2637,19 +2697,19 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
       <c r="M54" s="5"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -2666,19 +2726,19 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
       <c r="M55" s="5"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -2695,7 +2755,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2724,19 +2784,19 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="5"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -2753,19 +2813,19 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
       <c r="M58" s="5"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -2782,7 +2842,7 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -30042,9 +30102,93 @@
       <c r="Z998" s="3"/>
       <c r="AA998" s="3"/>
     </row>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="3"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="5"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+      <c r="G999" s="3"/>
+      <c r="H999" s="3"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="3"/>
+      <c r="L999" s="3"/>
+      <c r="M999" s="5"/>
+      <c r="N999" s="3"/>
+      <c r="O999" s="3"/>
+      <c r="P999" s="3"/>
+      <c r="Q999" s="3"/>
+      <c r="R999" s="3"/>
+      <c r="S999" s="3"/>
+      <c r="T999" s="3"/>
+      <c r="U999" s="3"/>
+      <c r="V999" s="3"/>
+      <c r="W999" s="3"/>
+      <c r="X999" s="3"/>
+      <c r="Y999" s="3"/>
+      <c r="Z999" s="3"/>
+      <c r="AA999" s="3"/>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="3"/>
+      <c r="B1000" s="3"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="5"/>
+      <c r="E1000" s="3"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="5"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="3"/>
+      <c r="Q1000" s="3"/>
+      <c r="R1000" s="3"/>
+      <c r="S1000" s="3"/>
+      <c r="T1000" s="3"/>
+      <c r="U1000" s="3"/>
+      <c r="V1000" s="3"/>
+      <c r="W1000" s="3"/>
+      <c r="X1000" s="3"/>
+      <c r="Y1000" s="3"/>
+      <c r="Z1000" s="3"/>
+      <c r="AA1000" s="3"/>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="5"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+      <c r="AA1001" s="3"/>
+    </row>
     <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -30106,12 +30250,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:A8 A35:A998">
+  <conditionalFormatting sqref="A1:A8 A38:A1001">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A8 A35:A998">
+  <conditionalFormatting sqref="A1:A8 A38:A1001">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"end group"</formula>
     </cfRule>
@@ -30142,7 +30286,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -30155,7 +30299,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -30188,16 +30332,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -30221,16 +30365,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -30254,16 +30398,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -30287,16 +30431,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -30320,16 +30464,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -30353,16 +30497,16 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -30386,16 +30530,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -30419,16 +30563,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -30452,16 +30596,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -30485,16 +30629,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -30518,16 +30662,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -30551,16 +30695,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -30587,13 +30731,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30601,13 +30745,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31624,19 +31768,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="3"/>
@@ -31662,20 +31806,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C2" s="25" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-07-31  14-43</v>
+        <v>2023-10-19  10-40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
